--- a/data/tehilim-data/51.xlsx
+++ b/data/tehilim-data/51.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="303">
   <si>
     <t>original</t>
   </si>
@@ -22,867 +22,837 @@
     <t>א</t>
   </si>
   <si>
-    <t>לַמְנַצֵּ֥חַ</t>
-  </si>
-  <si>
-    <t>Начальнику</t>
-  </si>
-  <si>
-    <t>מִזְמ֡וֹר</t>
-  </si>
-  <si>
-    <t>хора</t>
-  </si>
-  <si>
-    <t>לְדָוִ֗ד</t>
-  </si>
-  <si>
-    <t>Псалом</t>
-  </si>
-  <si>
-    <t>בְּב֘וֹא</t>
+    <t>נצח</t>
+  </si>
+  <si>
+    <t>руководителю</t>
+  </si>
+  <si>
+    <t>מזמור</t>
+  </si>
+  <si>
+    <t>песнопение</t>
+  </si>
+  <si>
+    <t>לדוד</t>
   </si>
   <si>
     <t>Давида</t>
   </si>
   <si>
-    <t>אֵלָ֤יו</t>
+    <t>בבוא</t>
+  </si>
+  <si>
+    <t>по приходе</t>
+  </si>
+  <si>
+    <t>אליו</t>
+  </si>
+  <si>
+    <t>к нему</t>
+  </si>
+  <si>
+    <t>נתן</t>
+  </si>
+  <si>
+    <t>Натан</t>
+  </si>
+  <si>
+    <t>הנביא</t>
+  </si>
+  <si>
+    <t>пророка</t>
+  </si>
+  <si>
+    <t>כאשר</t>
   </si>
   <si>
     <t>когда</t>
   </si>
   <si>
-    <t>נָתָ֨ן</t>
-  </si>
-  <si>
-    <t>к нему</t>
-  </si>
-  <si>
-    <t>הַנָּבִ֘יא</t>
-  </si>
-  <si>
-    <t>пришел</t>
-  </si>
-  <si>
-    <t>כַּאֲשֶׁ֣ר</t>
-  </si>
-  <si>
-    <t>Натан</t>
-  </si>
-  <si>
-    <t>בָּֽא</t>
-  </si>
-  <si>
-    <t>пророк</t>
-  </si>
-  <si>
-    <t>אֶל־</t>
-  </si>
-  <si>
-    <t>после</t>
-  </si>
-  <si>
-    <t>בַּת־</t>
-  </si>
-  <si>
-    <t>входа</t>
-  </si>
-  <si>
-    <t>שֶֽׁבַע</t>
-  </si>
-  <si>
-    <t>к Бат-Шеве</t>
+    <t>בא</t>
+  </si>
+  <si>
+    <t>вошел</t>
+  </si>
+  <si>
+    <t>אל</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>בת-שבע</t>
+  </si>
+  <si>
+    <t>Бат-Шеве</t>
   </si>
   <si>
     <t>ב</t>
   </si>
   <si>
-    <t>חָנֵּ֥נִי</t>
-  </si>
-  <si>
-    <t>Помилуй</t>
-  </si>
-  <si>
-    <t>אֱֽלֹהִ֗ים</t>
-  </si>
-  <si>
-    <t>меня</t>
-  </si>
-  <si>
-    <t>כְּחַסְדֶּ֑ךָ</t>
-  </si>
-  <si>
-    <t>Боже</t>
-  </si>
-  <si>
-    <t>כְּרֹ֥ב</t>
-  </si>
-  <si>
-    <t>по милости Твоей</t>
-  </si>
-  <si>
-    <t>רַחֲמֶֽיךָ</t>
-  </si>
-  <si>
-    <t>по множеству</t>
-  </si>
-  <si>
-    <t>מְחֵ֖ה</t>
-  </si>
-  <si>
-    <t>щедрот Твоих</t>
-  </si>
-  <si>
-    <t>פְּשָׁעָֽי</t>
-  </si>
-  <si>
-    <t>изгладь</t>
+    <t>חנני</t>
+  </si>
+  <si>
+    <t>помилуй меня</t>
+  </si>
+  <si>
+    <t>אלהים</t>
+  </si>
+  <si>
+    <t>Бог</t>
+  </si>
+  <si>
+    <t>כחסדך</t>
+  </si>
+  <si>
+    <t>по милосердию твоему</t>
+  </si>
+  <si>
+    <t>כרב</t>
+  </si>
+  <si>
+    <t>по величию</t>
+  </si>
+  <si>
+    <t>רחמיך</t>
+  </si>
+  <si>
+    <t>сострадательности твоей</t>
+  </si>
+  <si>
+    <t>מחה</t>
+  </si>
+  <si>
+    <t>сотри</t>
+  </si>
+  <si>
+    <t>פשעי</t>
+  </si>
+  <si>
+    <t>преступления мои</t>
   </si>
   <si>
     <t>ג</t>
   </si>
   <si>
-    <t>הַרְבֵּה֙</t>
-  </si>
-  <si>
-    <t>Многократно</t>
-  </si>
-  <si>
-    <t>כַּבְּסֵ֣נִי</t>
-  </si>
-  <si>
-    <t>омой меня</t>
-  </si>
-  <si>
-    <t>מֵעֲוֺנִ֔י</t>
-  </si>
-  <si>
-    <t>от беззакония моего</t>
-  </si>
-  <si>
-    <t>וּמֵחַטָּאתִ֖י</t>
+    <t>הרב</t>
+  </si>
+  <si>
+    <t>многократно</t>
+  </si>
+  <si>
+    <t>כבסני</t>
+  </si>
+  <si>
+    <t>отмой меня</t>
+  </si>
+  <si>
+    <t>מעוני</t>
+  </si>
+  <si>
+    <t>от прегрешения моего</t>
+  </si>
+  <si>
+    <t>ומחטאתי</t>
   </si>
   <si>
     <t>и от греха моего</t>
   </si>
   <si>
-    <t>טַהֲרֵֽנִי</t>
+    <t>ד</t>
+  </si>
+  <si>
+    <t>כי</t>
+  </si>
+  <si>
+    <t>ибо</t>
+  </si>
+  <si>
+    <t>אני</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>אדע</t>
+  </si>
+  <si>
+    <t>осознаю</t>
+  </si>
+  <si>
+    <t>וחטאתי</t>
+  </si>
+  <si>
+    <t>и грех мой</t>
+  </si>
+  <si>
+    <t>נגדי</t>
+  </si>
+  <si>
+    <t>напротив меня</t>
+  </si>
+  <si>
+    <t>ה</t>
+  </si>
+  <si>
+    <t>לך</t>
+  </si>
+  <si>
+    <t>тебе</t>
+  </si>
+  <si>
+    <t>לבדך</t>
+  </si>
+  <si>
+    <t>единому</t>
+  </si>
+  <si>
+    <t>חטאתי</t>
+  </si>
+  <si>
+    <t>согрешил</t>
+  </si>
+  <si>
+    <t>והרע</t>
+  </si>
+  <si>
+    <t>и злое</t>
+  </si>
+  <si>
+    <t>בעיניך</t>
+  </si>
+  <si>
+    <t>в глазах твоих</t>
+  </si>
+  <si>
+    <t>עשיתי</t>
+  </si>
+  <si>
+    <t>сделал</t>
+  </si>
+  <si>
+    <t>למען</t>
+  </si>
+  <si>
+    <t>чтобы</t>
+  </si>
+  <si>
+    <t>תצדק</t>
+  </si>
+  <si>
+    <t>оказался правым</t>
+  </si>
+  <si>
+    <t>בדברך</t>
+  </si>
+  <si>
+    <t>в речах твоих</t>
+  </si>
+  <si>
+    <t>תזכה</t>
+  </si>
+  <si>
+    <t>оправданным</t>
+  </si>
+  <si>
+    <t>בשפטך</t>
+  </si>
+  <si>
+    <t>в судебном</t>
+  </si>
+  <si>
+    <t>ו</t>
+  </si>
+  <si>
+    <t>הן</t>
+  </si>
+  <si>
+    <t>вот</t>
+  </si>
+  <si>
+    <t>בעון</t>
+  </si>
+  <si>
+    <t>в прегрешении</t>
+  </si>
+  <si>
+    <t>חוללתי</t>
+  </si>
+  <si>
+    <t>зачат</t>
+  </si>
+  <si>
+    <t>ובחטא</t>
+  </si>
+  <si>
+    <t>и в грехе</t>
+  </si>
+  <si>
+    <t>יחמתני</t>
+  </si>
+  <si>
+    <t>заченная меня</t>
+  </si>
+  <si>
+    <t>אמי</t>
+  </si>
+  <si>
+    <t>мать моя</t>
+  </si>
+  <si>
+    <t>ז</t>
+  </si>
+  <si>
+    <t>אמת</t>
+  </si>
+  <si>
+    <t>истина</t>
+  </si>
+  <si>
+    <t>חפצת</t>
+  </si>
+  <si>
+    <t>вожделение</t>
+  </si>
+  <si>
+    <t>בטוחות</t>
+  </si>
+  <si>
+    <t>в сокровенности</t>
+  </si>
+  <si>
+    <t>ובסתם</t>
+  </si>
+  <si>
+    <t>и в тайне</t>
+  </si>
+  <si>
+    <t>חכמה</t>
+  </si>
+  <si>
+    <t>мудрость</t>
+  </si>
+  <si>
+    <t>תודיעני</t>
+  </si>
+  <si>
+    <t>сообщишь мне</t>
+  </si>
+  <si>
+    <t>ח</t>
+  </si>
+  <si>
+    <t>תחטאני</t>
   </si>
   <si>
     <t>очисти меня</t>
   </si>
   <si>
-    <t>ד</t>
-  </si>
-  <si>
-    <t>כִּי־פְשָׁעַ֣י</t>
-  </si>
-  <si>
-    <t>Ибо</t>
-  </si>
-  <si>
-    <t>אֲנִ֣י</t>
-  </si>
-  <si>
-    <t>беззакония мои</t>
-  </si>
-  <si>
-    <t>אֵדָ֑ע</t>
-  </si>
-  <si>
-    <t>я</t>
-  </si>
-  <si>
-    <t>וְחַטָּאתִ֖י</t>
-  </si>
-  <si>
-    <t>сознаю</t>
-  </si>
-  <si>
-    <t>נֶגְדִּ֣י</t>
-  </si>
-  <si>
-    <t>и грех мой</t>
-  </si>
-  <si>
-    <t>תָמִֽיד</t>
-  </si>
-  <si>
-    <t>всегда</t>
-  </si>
-  <si>
-    <t>ה</t>
-  </si>
-  <si>
-    <t>לְךָ֤</t>
-  </si>
-  <si>
-    <t>Тебе</t>
-  </si>
-  <si>
-    <t>לְבַדְּךָ֨</t>
-  </si>
-  <si>
-    <t>единому</t>
-  </si>
-  <si>
-    <t>חָטָ֗אתִי</t>
-  </si>
-  <si>
-    <t>согрешил я</t>
-  </si>
-  <si>
-    <t>וְהָרַ֥ע</t>
-  </si>
-  <si>
-    <t>и лукавое</t>
-  </si>
-  <si>
-    <t>בְּעֵינֶ֗יךָ</t>
-  </si>
-  <si>
-    <t>пред очами Твоими</t>
-  </si>
-  <si>
-    <t>עָשִׂ֑יתִי</t>
-  </si>
-  <si>
-    <t>сотворил</t>
-  </si>
-  <si>
-    <t>לְמַ֥עַן</t>
-  </si>
-  <si>
-    <t>чтобы</t>
-  </si>
-  <si>
-    <t>תִּצְדַּ֥ק</t>
-  </si>
-  <si>
-    <t>Ты праведен был</t>
-  </si>
-  <si>
-    <t>בְּדָבְרֶ֑ךָ</t>
-  </si>
-  <si>
-    <t>в приговоре Твоем</t>
-  </si>
-  <si>
-    <t>תִּזְכֶּ֖ה</t>
+    <t>באזוב</t>
+  </si>
+  <si>
+    <t>иссопом</t>
+  </si>
+  <si>
+    <t>ואטהר</t>
   </si>
   <si>
     <t>и чист</t>
   </si>
   <si>
-    <t>בְשָׁפְטֶֽךָ</t>
-  </si>
-  <si>
-    <t>в суде Твоем</t>
-  </si>
-  <si>
-    <t>ו</t>
-  </si>
-  <si>
-    <t>הֵ֣ן</t>
-  </si>
-  <si>
-    <t>Вот</t>
-  </si>
-  <si>
-    <t>בְּעָוֺ֣ן</t>
-  </si>
-  <si>
-    <t>в беззаконии</t>
-  </si>
-  <si>
-    <t>חֹולָ֑לְתִּי</t>
-  </si>
-  <si>
-    <t>зачат я</t>
-  </si>
-  <si>
-    <t>וּבְחֵ֥טְא</t>
-  </si>
-  <si>
-    <t>и во грехе</t>
-  </si>
-  <si>
-    <t>יְחַמַּתְנִ֖י</t>
-  </si>
-  <si>
-    <t>родила меня</t>
-  </si>
-  <si>
-    <t>אִמִּֽי</t>
-  </si>
-  <si>
-    <t>мать моя</t>
-  </si>
-  <si>
-    <t>ז</t>
-  </si>
-  <si>
-    <t>אֱמֶ֣ת</t>
-  </si>
-  <si>
-    <t>истину</t>
-  </si>
-  <si>
-    <t>חָפַ֑צְתָּ</t>
-  </si>
-  <si>
-    <t>возлюбил Ты</t>
-  </si>
-  <si>
-    <t>בַּטֻּח֥וֹת</t>
-  </si>
-  <si>
-    <t>внутреннее</t>
-  </si>
-  <si>
-    <t>וּבְסָתֻ֖ם</t>
-  </si>
-  <si>
-    <t>и в тайне</t>
-  </si>
-  <si>
-    <t>חָכְמָ֣ה</t>
-  </si>
-  <si>
-    <t>мудрость</t>
-  </si>
-  <si>
-    <t>תֹודִיעֵֽנִי</t>
-  </si>
-  <si>
-    <t>мне явил</t>
-  </si>
-  <si>
-    <t>ח</t>
-  </si>
-  <si>
-    <t>תְּחַטְּאֵ֣נִי</t>
-  </si>
-  <si>
-    <t>Окропи</t>
-  </si>
-  <si>
-    <t>בְאֵז֣וֹב</t>
-  </si>
-  <si>
-    <t>וְאֶטְהָ֑ר</t>
-  </si>
-  <si>
-    <t>иссопом</t>
-  </si>
-  <si>
-    <t>תְּכַבְּסֵ֥נִי</t>
-  </si>
-  <si>
-    <t>и буду чист</t>
-  </si>
-  <si>
-    <t>וּמִשֶּׁ֖לֶג</t>
-  </si>
-  <si>
-    <t>אַלְבִּֽין</t>
-  </si>
-  <si>
-    <t>и белее</t>
+    <t>תכבסני</t>
+  </si>
+  <si>
+    <t>омою меня</t>
+  </si>
+  <si>
+    <t>ומשלג</t>
+  </si>
+  <si>
+    <t>белее стану</t>
+  </si>
+  <si>
+    <t>אלבין</t>
+  </si>
+  <si>
+    <t>и снег</t>
   </si>
   <si>
     <t>ט</t>
   </si>
   <si>
-    <t>תַּשְׁמִיעֵ֣נִי</t>
-  </si>
-  <si>
-    <t>Дай услышать</t>
-  </si>
-  <si>
-    <t>שָׂשֹ֣וֹן</t>
+    <t>תשמיעני</t>
+  </si>
+  <si>
+    <t>дай услышать</t>
+  </si>
+  <si>
+    <t>ששון</t>
   </si>
   <si>
     <t>радость</t>
   </si>
   <si>
-    <t>וְשִׂמְחָ֑ה</t>
+    <t>ושמחה</t>
   </si>
   <si>
     <t>и веселье</t>
   </si>
   <si>
-    <t>תָּגֵ֥ל</t>
-  </si>
-  <si>
-    <t>возрадуются</t>
-  </si>
-  <si>
-    <t>נָ֝בִ֗ים</t>
-  </si>
-  <si>
-    <t>кости</t>
-  </si>
-  <si>
-    <t>תְּדַכֵּ֥ה</t>
-  </si>
-  <si>
-    <t>Ты сокрушил</t>
+    <t>תגל</t>
+  </si>
+  <si>
+    <t>возрадуется</t>
+  </si>
+  <si>
+    <t>נה</t>
+  </si>
+  <si>
+    <t>возрадоваться</t>
+  </si>
+  <si>
+    <t>עצמות</t>
+  </si>
+  <si>
+    <t>кости мои</t>
+  </si>
+  <si>
+    <t>דכית</t>
+  </si>
+  <si>
+    <t>сокрушенные</t>
   </si>
   <si>
     <t>י</t>
   </si>
   <si>
-    <t>הַסְתֵּ֤ר</t>
-  </si>
-  <si>
-    <t>Отврати</t>
-  </si>
-  <si>
-    <t>פָּנֶ֣יךָ</t>
-  </si>
-  <si>
-    <t>лицо Твое</t>
-  </si>
-  <si>
-    <t>מֵחֲטָאָ֑י</t>
+    <t>הסתר</t>
+  </si>
+  <si>
+    <t>скрой</t>
+  </si>
+  <si>
+    <t>פניך</t>
+  </si>
+  <si>
+    <t>лик твой</t>
+  </si>
+  <si>
+    <t>מחטאי</t>
   </si>
   <si>
     <t>от грехов моих</t>
   </si>
   <si>
-    <t>וְכָל־עֲוֺנֹתַ֥י</t>
-  </si>
-  <si>
-    <t>и все беззакония мои</t>
-  </si>
-  <si>
-    <t>מְחֵֽה</t>
+    <t>וכל</t>
+  </si>
+  <si>
+    <t>и все</t>
+  </si>
+  <si>
+    <t>עונתיי</t>
+  </si>
+  <si>
+    <t>прегрешения мои</t>
   </si>
   <si>
     <t>יא</t>
   </si>
   <si>
-    <t>לֵ֤ב</t>
-  </si>
-  <si>
-    <t>Сердце</t>
-  </si>
-  <si>
-    <t>טָה֣וֹר</t>
+    <t>לב</t>
+  </si>
+  <si>
+    <t>сердце</t>
+  </si>
+  <si>
+    <t>טהור</t>
   </si>
   <si>
     <t>чистое</t>
   </si>
   <si>
-    <t>בְּרָא־</t>
+    <t>ברא</t>
   </si>
   <si>
     <t>сотвори</t>
   </si>
   <si>
-    <t>לִ֣י</t>
+    <t>לי</t>
+  </si>
+  <si>
+    <t>мне</t>
+  </si>
+  <si>
+    <t>ורוח</t>
+  </si>
+  <si>
+    <t>и дух</t>
+  </si>
+  <si>
+    <t>נכון</t>
+  </si>
+  <si>
+    <t>верный</t>
+  </si>
+  <si>
+    <t>חדש</t>
+  </si>
+  <si>
+    <t>обнови</t>
+  </si>
+  <si>
+    <t>בקרבי</t>
   </si>
   <si>
     <t>во мне</t>
   </si>
   <si>
-    <t>אֱלֹהִ֑ים</t>
-  </si>
-  <si>
-    <t>וְר֥וּחַ</t>
-  </si>
-  <si>
-    <t>и дух</t>
-  </si>
-  <si>
-    <t>נָכ֖וֹן</t>
-  </si>
-  <si>
-    <t>правый</t>
-  </si>
-  <si>
-    <t>חַדֵּ֣שׁ</t>
-  </si>
-  <si>
-    <t>обнови</t>
-  </si>
-  <si>
-    <t>בְּקִרְבִּֽי</t>
-  </si>
-  <si>
-    <t>внутри меня</t>
-  </si>
-  <si>
     <t>יב</t>
   </si>
   <si>
-    <t>אַל־</t>
-  </si>
-  <si>
-    <t>Не</t>
-  </si>
-  <si>
-    <t>תַּשְׁלִיכֵ֣נִי</t>
-  </si>
-  <si>
-    <t>отвергни</t>
-  </si>
-  <si>
-    <t>מִלְּפָנֶ֑יךָ</t>
-  </si>
-  <si>
-    <t>от лица Твоего</t>
-  </si>
-  <si>
-    <t>קָדְשְׁךָ֗</t>
-  </si>
-  <si>
-    <t>Святой</t>
-  </si>
-  <si>
-    <t>תִּקַּ֥ח</t>
-  </si>
-  <si>
     <t>не</t>
   </si>
   <si>
-    <t>מִמֶּֽנִּי</t>
-  </si>
-  <si>
-    <t>отними</t>
+    <t>תשליכני</t>
+  </si>
+  <si>
+    <t>забирай</t>
+  </si>
+  <si>
+    <t>מלפניך</t>
+  </si>
+  <si>
+    <t>от лица твоего</t>
+  </si>
+  <si>
+    <t>ורוחך</t>
+  </si>
+  <si>
+    <t>и дух твой</t>
+  </si>
+  <si>
+    <t>קדשך</t>
+  </si>
+  <si>
+    <t>святой</t>
+  </si>
+  <si>
+    <t>תקח</t>
+  </si>
+  <si>
+    <t>отнимай</t>
+  </si>
+  <si>
+    <t>ממני</t>
+  </si>
+  <si>
+    <t>у меня</t>
   </si>
   <si>
     <t>יג</t>
   </si>
   <si>
-    <t>הָשִׁ֣יבָה</t>
-  </si>
-  <si>
-    <t>Возврати</t>
-  </si>
-  <si>
-    <t>לִּ֣י</t>
-  </si>
-  <si>
-    <t>мне</t>
-  </si>
-  <si>
-    <t>שְׂשׂ֣וֹן</t>
-  </si>
-  <si>
-    <t>יְשׁוּעָתֶ֑ךָ</t>
-  </si>
-  <si>
-    <t>спасения Твоего</t>
-  </si>
-  <si>
-    <t>נְדִיבָֽה</t>
-  </si>
-  <si>
-    <t>властный</t>
-  </si>
-  <si>
-    <t>תִסְמְכֵֽנִי</t>
-  </si>
-  <si>
-    <t>утверди меня</t>
+    <t>השיבה</t>
+  </si>
+  <si>
+    <t>верни</t>
+  </si>
+  <si>
+    <t>ישעך</t>
+  </si>
+  <si>
+    <t>избавления твоего</t>
+  </si>
+  <si>
+    <t>נדיבה</t>
+  </si>
+  <si>
+    <t>благотворный</t>
+  </si>
+  <si>
+    <t>תסמכני</t>
+  </si>
+  <si>
+    <t>поддержи меня</t>
   </si>
   <si>
     <t>יד</t>
   </si>
   <si>
-    <t>אֲלַמְּדָ֥ה</t>
-  </si>
-  <si>
-    <t>Научу</t>
-  </si>
-  <si>
-    <t>פֹֽשְׁעִ֗ים</t>
-  </si>
-  <si>
-    <t>беззаконных</t>
-  </si>
-  <si>
-    <t>דְּרָכֶ֥֫יךָ</t>
-  </si>
-  <si>
-    <t>путям Твоим</t>
-  </si>
-  <si>
-    <t>וְחַטָּאִ֥ים</t>
-  </si>
-  <si>
-    <t>и нечестивые</t>
-  </si>
-  <si>
-    <t>אֵלֶ֥יךָ</t>
-  </si>
-  <si>
-    <t>к Тебе</t>
-  </si>
-  <si>
-    <t>יָשֽׁוּבוּ</t>
-  </si>
-  <si>
-    <t>обратятся</t>
+    <t>אלמדה</t>
+  </si>
+  <si>
+    <t>научу</t>
+  </si>
+  <si>
+    <t>פשעים</t>
+  </si>
+  <si>
+    <t>преступников</t>
+  </si>
+  <si>
+    <t>דרכיך</t>
+  </si>
+  <si>
+    <t>дорогам твоим</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>חטאים</t>
+  </si>
+  <si>
+    <t>грешников</t>
+  </si>
+  <si>
+    <t>אליך</t>
+  </si>
+  <si>
+    <t>к тебе</t>
+  </si>
+  <si>
+    <t>ישובו</t>
+  </si>
+  <si>
+    <t>вернуться</t>
   </si>
   <si>
     <t>טו</t>
   </si>
   <si>
-    <t>הַצִּילֵ֣נִי</t>
-  </si>
-  <si>
-    <t>Избавь</t>
-  </si>
-  <si>
-    <t>מִדָּמִ֣ים</t>
-  </si>
-  <si>
-    <t>אֱ֭לֹהִים</t>
-  </si>
-  <si>
-    <t>от кровей</t>
-  </si>
-  <si>
-    <t>אֱלֹהֵ֣י</t>
-  </si>
-  <si>
-    <t>תְּשׁוּעָתִ֑י</t>
-  </si>
-  <si>
-    <t>תְּֽ֝רַנֵּ֗ן</t>
+    <t>הצילני</t>
+  </si>
+  <si>
+    <t>спаси меня</t>
+  </si>
+  <si>
+    <t>מדמים</t>
+  </si>
+  <si>
+    <t>от кровожадных</t>
+  </si>
+  <si>
+    <t>ישעי</t>
   </si>
   <si>
     <t>спасения моего</t>
   </si>
   <si>
-    <t>לְשׁוֹנִ֥י</t>
-  </si>
-  <si>
-    <t>возрадуется</t>
-  </si>
-  <si>
-    <t>צִדְקָתֶֽךָ</t>
+    <t>תרנן</t>
+  </si>
+  <si>
+    <t>воспоет</t>
+  </si>
+  <si>
+    <t>לשוני</t>
   </si>
   <si>
     <t>язык мой</t>
   </si>
   <si>
+    <t>צדקתך</t>
+  </si>
+  <si>
+    <t>справедливость твою</t>
+  </si>
+  <si>
     <t>טז</t>
   </si>
   <si>
-    <t>אֲדֹנָ֥י</t>
-  </si>
-  <si>
-    <t>Господи</t>
-  </si>
-  <si>
-    <t>שְׂפָתַ֗י</t>
+    <t>אדני</t>
+  </si>
+  <si>
+    <t>господи</t>
+  </si>
+  <si>
+    <t>שפתי</t>
   </si>
   <si>
     <t>уста мои</t>
   </si>
   <si>
-    <t>תִּפְתָּ֑ח</t>
-  </si>
-  <si>
-    <t>отверзи</t>
-  </si>
-  <si>
-    <t>וּפִ֖י</t>
-  </si>
-  <si>
-    <t>и уста мои</t>
-  </si>
-  <si>
-    <t>יַגִּ֣יד</t>
-  </si>
-  <si>
-    <t>возвестят</t>
-  </si>
-  <si>
-    <t>תְּהִלָּתֶֽךָ</t>
-  </si>
-  <si>
-    <t>хвалу Твою</t>
+    <t>תפתח</t>
+  </si>
+  <si>
+    <t>раствори</t>
+  </si>
+  <si>
+    <t>ופי</t>
+  </si>
+  <si>
+    <t>и рот мой</t>
+  </si>
+  <si>
+    <t>יגיד</t>
+  </si>
+  <si>
+    <t>скажет</t>
+  </si>
+  <si>
+    <t>תהלתך</t>
+  </si>
+  <si>
+    <t>прославление тебе</t>
   </si>
   <si>
     <t>יז</t>
   </si>
   <si>
-    <t>כִּֽי</t>
-  </si>
-  <si>
-    <t>לֹא־</t>
-  </si>
-  <si>
-    <t>תַחְפֹּ֣ץ</t>
-  </si>
-  <si>
-    <t>угодно Тебе</t>
-  </si>
-  <si>
-    <t>זֶ֣בַח</t>
-  </si>
-  <si>
-    <t>жертва</t>
-  </si>
-  <si>
-    <t>וְאֶתֵּנָ֑ה</t>
-  </si>
-  <si>
-    <t>я бы принес</t>
+    <t>לא</t>
+  </si>
+  <si>
+    <t>תחפץ</t>
+  </si>
+  <si>
+    <t>желаешь</t>
+  </si>
+  <si>
+    <t>זבח</t>
+  </si>
+  <si>
+    <t>заклания</t>
+  </si>
+  <si>
+    <t>ואתנה</t>
+  </si>
+  <si>
+    <t>а то я дал</t>
+  </si>
+  <si>
+    <t>עולה</t>
+  </si>
+  <si>
+    <t>всесожжения</t>
+  </si>
+  <si>
+    <t>תרצה</t>
+  </si>
+  <si>
+    <t>хочешь</t>
+  </si>
+  <si>
+    <t>יח</t>
+  </si>
+  <si>
+    <t>זבחי</t>
+  </si>
+  <si>
+    <t>заклание (угодное)</t>
+  </si>
+  <si>
+    <t>богу</t>
+  </si>
+  <si>
+    <t>רוח</t>
+  </si>
+  <si>
+    <t>дух</t>
+  </si>
+  <si>
+    <t>נשברה</t>
+  </si>
+  <si>
+    <t>сокрушенный</t>
+  </si>
+  <si>
+    <t>נשבר</t>
+  </si>
+  <si>
+    <t>разбитым</t>
+  </si>
+  <si>
+    <t>ונדכה</t>
+  </si>
+  <si>
+    <t>угнетенным</t>
+  </si>
+  <si>
+    <t>бог</t>
+  </si>
+  <si>
+    <t>תבזה</t>
+  </si>
+  <si>
+    <t>пренебрегает</t>
+  </si>
+  <si>
+    <t>יט</t>
+  </si>
+  <si>
+    <t>הֵיטִ֤יבָה</t>
+  </si>
+  <si>
+    <t>Облагодетельствуй</t>
+  </si>
+  <si>
+    <t>בִֽרְצוֹנְךָ֨</t>
+  </si>
+  <si>
+    <t>по воле</t>
+  </si>
+  <si>
+    <t>אֶת־</t>
+  </si>
+  <si>
+    <t>Твоей</t>
+  </si>
+  <si>
+    <t>צִיּ֗וֹן</t>
+  </si>
+  <si>
+    <t>Сион</t>
+  </si>
+  <si>
+    <t>תִּבְנֶ֥ה</t>
+  </si>
+  <si>
+    <t>построй</t>
+  </si>
+  <si>
+    <t>חֽוֹמוֹת</t>
+  </si>
+  <si>
+    <t>стены</t>
+  </si>
+  <si>
+    <t>יְֽרוּשָׁלִָֽם</t>
+  </si>
+  <si>
+    <t>Иерусалима</t>
+  </si>
+  <si>
+    <t>כ</t>
+  </si>
+  <si>
+    <t>אָֽז</t>
+  </si>
+  <si>
+    <t>Тогда</t>
+  </si>
+  <si>
+    <t>תַּחְפֹּ֣ץ</t>
+  </si>
+  <si>
+    <t>угодны будут</t>
+  </si>
+  <si>
+    <t>זִבְחֵי־</t>
+  </si>
+  <si>
+    <t>жертвы</t>
+  </si>
+  <si>
+    <t>צֶ֑דֶק</t>
+  </si>
+  <si>
+    <t>правды</t>
   </si>
   <si>
     <t>עוֹלָ֥ה</t>
   </si>
   <si>
-    <t>всесожжение</t>
-  </si>
-  <si>
-    <t>לֹֽא־</t>
-  </si>
-  <si>
-    <t>תִרְצֶֽה</t>
-  </si>
-  <si>
-    <t>יח</t>
-  </si>
-  <si>
-    <t>זִבְחֵי</t>
-  </si>
-  <si>
-    <t>Жертва</t>
-  </si>
-  <si>
-    <t>אֱלֹהִ֣ים</t>
-  </si>
-  <si>
-    <t>Богу</t>
-  </si>
-  <si>
-    <t>ר֣וּחַ</t>
-  </si>
-  <si>
-    <t>дух</t>
-  </si>
-  <si>
-    <t>נִשְׁבָּרָ֑ה</t>
-  </si>
-  <si>
-    <t>сокрушенный</t>
-  </si>
-  <si>
-    <t>לֵ֥ב</t>
-  </si>
-  <si>
-    <t>сердце</t>
-  </si>
-  <si>
-    <t>נִשְׁבָּ֥ר</t>
-  </si>
-  <si>
-    <t>сокрушенное</t>
-  </si>
-  <si>
-    <t>וְנִדְכֶּ֗ה</t>
-  </si>
-  <si>
-    <t>и смиренное</t>
-  </si>
-  <si>
-    <t>אֱ֫לֹהִ֥ים</t>
-  </si>
-  <si>
-    <t>לֹ֣א</t>
-  </si>
-  <si>
-    <t>Ты</t>
-  </si>
-  <si>
-    <t>תִבְזֶֽה</t>
-  </si>
-  <si>
-    <t>не презришь</t>
-  </si>
-  <si>
-    <t>יט</t>
-  </si>
-  <si>
-    <t>הֵיטִ֤יבָה</t>
-  </si>
-  <si>
-    <t>Облагодетельствуй</t>
-  </si>
-  <si>
-    <t>בִֽרְצוֹנְךָ֨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">по благоволению </t>
-  </si>
-  <si>
-    <t>אֶת־</t>
-  </si>
-  <si>
-    <t>Твоему</t>
-  </si>
-  <si>
-    <t>צִיּ֗וֹן</t>
-  </si>
-  <si>
-    <t>Сион</t>
-  </si>
-  <si>
-    <t>תִּבְנֶ֥ה</t>
-  </si>
-  <si>
-    <t>воздвигни</t>
-  </si>
-  <si>
-    <t>חֽוֹמוֹת</t>
-  </si>
-  <si>
-    <t>стены</t>
-  </si>
-  <si>
-    <t>יְֽרוּשָׁלִָֽם</t>
-  </si>
-  <si>
-    <t>Иерусалима</t>
-  </si>
-  <si>
-    <t>כ</t>
-  </si>
-  <si>
-    <t>אָֽז</t>
-  </si>
-  <si>
-    <t>Тогда</t>
-  </si>
-  <si>
-    <t>תַּחְפֹּ֣ץ</t>
-  </si>
-  <si>
-    <t>угодны будут</t>
-  </si>
-  <si>
-    <t>זִבְחֵי־</t>
-  </si>
-  <si>
-    <t>жертвы</t>
-  </si>
-  <si>
-    <t>צֶ֑דֶק</t>
-  </si>
-  <si>
-    <t>правды</t>
-  </si>
-  <si>
-    <t>всесожжения</t>
-  </si>
-  <si>
     <t>וְכָלִ֖יל</t>
   </si>
   <si>
@@ -913,10 +883,43 @@
     <t>כ"א</t>
   </si>
   <si>
-    <t>פָּרִֽים</t>
-  </si>
-  <si>
-    <t>тельцы</t>
+    <t>אז</t>
+  </si>
+  <si>
+    <t>возжелаешь</t>
+  </si>
+  <si>
+    <t>צדק</t>
+  </si>
+  <si>
+    <t>праведности</t>
+  </si>
+  <si>
+    <t>וכליל</t>
+  </si>
+  <si>
+    <t>вознесения</t>
+  </si>
+  <si>
+    <t>יעלו</t>
+  </si>
+  <si>
+    <t>поднимут</t>
+  </si>
+  <si>
+    <t>על</t>
+  </si>
+  <si>
+    <t>מזבחך</t>
+  </si>
+  <si>
+    <t>жертвенник твой</t>
+  </si>
+  <si>
+    <t>פרים</t>
+  </si>
+  <si>
+    <t>быков</t>
   </si>
 </sst>
 </file>
@@ -931,16 +934,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -963,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -974,14 +980,23 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -1320,22 +1335,22 @@
       <c r="C13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
@@ -1344,7 +1359,7 @@
       <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
@@ -1353,7 +1368,7 @@
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
@@ -1362,7 +1377,7 @@
       <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
@@ -1371,7 +1386,7 @@
       <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
@@ -1380,7 +1395,7 @@
       <c r="B20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
@@ -1389,25 +1404,25 @@
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
@@ -1416,7 +1431,7 @@
       <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
@@ -1425,7 +1440,7 @@
       <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
@@ -1434,401 +1449,401 @@
       <c r="B26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>50</v>
+      <c r="B27" s="7">
+        <v>4.0</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="C29" s="2"/>
+      <c r="A29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="6"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="C32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>63</v>
+      <c r="B34" s="7">
+        <v>5.0</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="6">
-        <v>5.0</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="C41" s="6"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C42" s="6"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="C43" s="6"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C44" s="6"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>86</v>
+      <c r="B46" s="7">
+        <v>6.0</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="6">
-        <v>6.0</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>99</v>
+      <c r="B53" s="7">
+        <v>7.0</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="6">
-        <v>7.0</v>
+      <c r="A55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>112</v>
+      <c r="B61" s="7">
+        <v>8.0</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="6">
-        <v>8.0</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>46</v>
+      <c r="B68" s="7">
+        <v>9.0</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="B70" s="6">
-        <v>9.0</v>
       </c>
       <c r="C70" s="2"/>
     </row>
@@ -1878,20 +1893,20 @@
       <c r="C75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="B77" s="6">
-        <v>10.0</v>
       </c>
       <c r="C77" s="2"/>
     </row>
@@ -1933,826 +1948,826 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B83" s="6">
+      <c r="B83" s="7">
         <v>11.0</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B93" s="6">
+      <c r="B93" s="7">
         <v>12.0</v>
       </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="C96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="C98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="C100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B102" s="6">
+      <c r="B102" s="7">
         <v>13.0</v>
       </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="C103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="C104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B110" s="6">
+      <c r="A110" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B110" s="7">
         <v>14.0</v>
       </c>
       <c r="C110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B117" s="6">
+      <c r="A117" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" s="7">
         <v>15.0</v>
-      </c>
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="C118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="C119" s="6"/>
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C120" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C120" s="6"/>
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C121" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C121" s="6"/>
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C122" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="C122" s="6"/>
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="C123" s="6"/>
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C124" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="C124" s="6"/>
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C125" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C125" s="6"/>
     </row>
     <row r="126">
-      <c r="A126" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B126" s="6">
+      <c r="A126" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B126" s="7">
         <v>16.0</v>
       </c>
       <c r="C126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C127" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="C127" s="6"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C128" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="C128" s="6"/>
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C129" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="C129" s="6"/>
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C130" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="C130" s="6"/>
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C131" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="C131" s="6"/>
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C132" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="C132" s="6"/>
     </row>
     <row r="133">
-      <c r="A133" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B133" s="6">
+      <c r="A133" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B133" s="7">
         <v>17.0</v>
       </c>
       <c r="C133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B142" s="6">
+      <c r="A142" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B142" s="7">
         <v>18.0</v>
       </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>255</v>
+        <v>150</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B153" s="7">
+        <v>19.0</v>
+      </c>
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="C157" s="2"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C152" s="2"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="6" t="s">
+      <c r="B158" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B153" s="6">
-        <v>19.0</v>
-      </c>
-      <c r="C153" s="2"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="4" t="s">
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B159" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C154" s="2"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="4" t="s">
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B160" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C155" s="2"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="4" t="s">
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B161" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C156" s="2"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="4" t="s">
+      <c r="B162" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="C162" s="2"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="4" t="s">
+      <c r="B163" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="4" t="s">
+      <c r="B164" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C159" s="2"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="4" t="s">
+      <c r="B165" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C160" s="2"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="6" t="s">
+      <c r="B166" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B161" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="C161" s="2"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="4" t="s">
+      <c r="B167" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C162" s="2"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="4" t="s">
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B169" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C163" s="2"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="4" t="s">
+      <c r="C169" s="2"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B170" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C164" s="2"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="4" t="s">
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B171" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C165" s="2"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B166" s="5" t="s">
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C167" s="2"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C169" s="2"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C170" s="2"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C171" s="2"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B172" s="6">
+      <c r="B172" s="7">
         <v>21.0</v>
       </c>
       <c r="C172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>282</v>
@@ -2761,93 +2776,84 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="C175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="C177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C182" s="2"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C183" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
